--- a/news/data/heatmap.xlsx
+++ b/news/data/heatmap.xlsx
@@ -468,7 +468,7 @@
         <v>100.5550909</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>98.93319643</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,7 +548,7 @@
         <v>101.0667304</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>100.0795094</v>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         <v>99.91875</v>
       </c>
       <c r="D11" t="n">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
         <v>98.91724121</v>
       </c>
       <c r="D12" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         <v>99.5570087</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -676,7 +676,7 @@
         <v>98.83153333</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -724,7 +724,7 @@
         <v>104.4824211</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -756,7 +756,7 @@
         <v>99.86060000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         <v>100.1862923</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>100.4318462</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -820,7 +820,7 @@
         <v>100.8072323</v>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -868,7 +868,7 @@
         <v>100.62965</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -932,7 +932,7 @@
         <v>100.531913</v>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -948,7 +948,7 @@
         <v>100.094029</v>
       </c>
       <c r="D32" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -964,7 +964,7 @@
         <v>98.27682857000001</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -980,7 +980,7 @@
         <v>100.0658358</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -996,7 +996,7 @@
         <v>100.3574944</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1012,7 +1012,7 @@
         <v>100.3803617</v>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>100.0986282</v>
       </c>
       <c r="D39" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
@@ -1076,7 +1076,7 @@
         <v>98.36633333</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1124,7 +1124,7 @@
         <v>98.05331818000001</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>98.57229508</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1220,7 +1220,7 @@
         <v>100.8014793</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -1236,7 +1236,7 @@
         <v>101.6448333</v>
       </c>
       <c r="D50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -1300,7 +1300,7 @@
         <v>99.73135954999999</v>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1316,7 +1316,7 @@
         <v>100.65864</v>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -1396,7 +1396,7 @@
         <v>100.3588372</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -1412,7 +1412,7 @@
         <v>99.79468605</v>
       </c>
       <c r="D61" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
@@ -1428,7 +1428,7 @@
         <v>100.0094679</v>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -1476,7 +1476,7 @@
         <v>102.7967419</v>
       </c>
       <c r="D65" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
@@ -1492,7 +1492,7 @@
         <v>100.3824384</v>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
@@ -1524,7 +1524,7 @@
         <v>100.3270299</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -1540,7 +1540,7 @@
         <v>99.7926087</v>
       </c>
       <c r="D69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">

--- a/news/data/heatmap.xlsx
+++ b/news/data/heatmap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,36 @@
           <t>events</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>events-q1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>events-q2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>events-q3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>events-q4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>events-q12</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>events-q123</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +500,24 @@
       <c r="D2" t="n">
         <v>9</v>
       </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +534,24 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +568,24 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +602,24 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +636,24 @@
       <c r="D6" t="n">
         <v>1</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,6 +670,24 @@
       <c r="D7" t="n">
         <v>6</v>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -566,6 +704,24 @@
       <c r="D8" t="n">
         <v>37</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +738,24 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -598,6 +772,24 @@
       <c r="D10" t="n">
         <v>5</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -614,6 +806,24 @@
       <c r="D11" t="n">
         <v>145</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>120</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,6 +840,24 @@
       <c r="D12" t="n">
         <v>102</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>58</v>
+      </c>
+      <c r="H12" t="n">
+        <v>44</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -646,6 +874,24 @@
       <c r="D13" t="n">
         <v>3</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +908,24 @@
       <c r="D14" t="n">
         <v>4</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +942,24 @@
       <c r="D15" t="n">
         <v>18</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -694,6 +976,24 @@
       <c r="D16" t="n">
         <v>1</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +1010,24 @@
       <c r="D17" t="n">
         <v>3</v>
       </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +1044,24 @@
       <c r="D18" t="n">
         <v>15</v>
       </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -742,6 +1078,24 @@
       <c r="D19" t="n">
         <v>2</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +1112,24 @@
       <c r="D20" t="n">
         <v>5</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +1146,24 @@
       <c r="D21" t="n">
         <v>16</v>
       </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -790,6 +1180,24 @@
       <c r="D22" t="n">
         <v>23</v>
       </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -806,6 +1214,24 @@
       <c r="D23" t="n">
         <v>2</v>
       </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -822,6 +1248,24 @@
       <c r="D24" t="n">
         <v>29</v>
       </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>29</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -838,6 +1282,24 @@
       <c r="D25" t="n">
         <v>15</v>
       </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -854,6 +1316,24 @@
       <c r="D26" t="n">
         <v>2</v>
       </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -870,6 +1350,24 @@
       <c r="D27" t="n">
         <v>9</v>
       </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -886,6 +1384,24 @@
       <c r="D28" t="n">
         <v>2</v>
       </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -902,6 +1418,24 @@
       <c r="D29" t="n">
         <v>6</v>
       </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -918,6 +1452,24 @@
       <c r="D30" t="n">
         <v>2</v>
       </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -934,6 +1486,24 @@
       <c r="D31" t="n">
         <v>33</v>
       </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -950,6 +1520,24 @@
       <c r="D32" t="n">
         <v>26</v>
       </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,6 +1554,24 @@
       <c r="D33" t="n">
         <v>5</v>
       </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -982,6 +1588,24 @@
       <c r="D34" t="n">
         <v>3</v>
       </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -998,6 +1622,24 @@
       <c r="D35" t="n">
         <v>6</v>
       </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1014,6 +1656,24 @@
       <c r="D36" t="n">
         <v>14</v>
       </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1030,6 +1690,24 @@
       <c r="D37" t="n">
         <v>2</v>
       </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1046,6 +1724,24 @@
       <c r="D38" t="n">
         <v>3</v>
       </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1062,6 +1758,24 @@
       <c r="D39" t="n">
         <v>30</v>
       </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>30</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1792,24 @@
       <c r="D40" t="n">
         <v>6</v>
       </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1094,6 +1826,24 @@
       <c r="D41" t="n">
         <v>3</v>
       </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1110,6 +1860,24 @@
       <c r="D42" t="n">
         <v>5</v>
       </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1126,6 +1894,24 @@
       <c r="D43" t="n">
         <v>13</v>
       </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>12</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1142,6 +1928,24 @@
       <c r="D44" t="n">
         <v>2</v>
       </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1158,6 +1962,24 @@
       <c r="D45" t="n">
         <v>4</v>
       </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1174,6 +1996,24 @@
       <c r="D46" t="n">
         <v>2</v>
       </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1190,6 +2030,24 @@
       <c r="D47" t="n">
         <v>8</v>
       </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1206,6 +2064,24 @@
       <c r="D48" t="n">
         <v>2</v>
       </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1222,6 +2098,24 @@
       <c r="D49" t="n">
         <v>11</v>
       </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1238,6 +2132,24 @@
       <c r="D50" t="n">
         <v>14</v>
       </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>14</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1254,6 +2166,24 @@
       <c r="D51" t="n">
         <v>1</v>
       </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1270,6 +2200,24 @@
       <c r="D52" t="n">
         <v>2</v>
       </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1286,6 +2234,24 @@
       <c r="D53" t="n">
         <v>4</v>
       </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1302,6 +2268,24 @@
       <c r="D54" t="n">
         <v>7</v>
       </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1318,6 +2302,24 @@
       <c r="D55" t="n">
         <v>10</v>
       </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1334,6 +2336,24 @@
       <c r="D56" t="n">
         <v>2</v>
       </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1350,6 +2370,24 @@
       <c r="D57" t="n">
         <v>2</v>
       </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1366,6 +2404,24 @@
       <c r="D58" t="n">
         <v>2</v>
       </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1382,6 +2438,24 @@
       <c r="D59" t="n">
         <v>1</v>
       </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1398,6 +2472,24 @@
       <c r="D60" t="n">
         <v>11</v>
       </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>8</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1414,6 +2506,24 @@
       <c r="D61" t="n">
         <v>39</v>
       </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>34</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1430,6 +2540,24 @@
       <c r="D62" t="n">
         <v>9</v>
       </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>8</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1446,6 +2574,24 @@
       <c r="D63" t="n">
         <v>4</v>
       </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1462,6 +2608,24 @@
       <c r="D64" t="n">
         <v>1</v>
       </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1478,6 +2642,24 @@
       <c r="D65" t="n">
         <v>29</v>
       </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>29</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1494,6 +2676,24 @@
       <c r="D66" t="n">
         <v>24</v>
       </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1510,6 +2710,24 @@
       <c r="D67" t="n">
         <v>6</v>
       </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1526,6 +2744,24 @@
       <c r="D68" t="n">
         <v>3</v>
       </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1542,6 +2778,24 @@
       <c r="D69" t="n">
         <v>12</v>
       </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1556,6 +2810,24 @@
         <v>105.0234136</v>
       </c>
       <c r="D70" t="n">
+        <v>6</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>6</v>
       </c>
     </row>
